--- a/inst/extdata/covid19_Toronto.xlsx
+++ b/inst/extdata/covid19_Toronto.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
   <si>
     <t>Case Count</t>
   </si>
@@ -63,7 +63,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Updated: April 24, 2020</t>
+    <t>Updated: May 1, 2020</t>
   </si>
   <si>
     <t>Age Group</t>
@@ -108,6 +108,9 @@
     <t>Client Gender</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -117,7 +120,7 @@
     <t>Running Sum of Case Count</t>
   </si>
   <si>
-    <t>CDSU Interventions</t>
+    <t>Interventions</t>
   </si>
   <si>
     <t>Currently Intubated</t>
@@ -129,21 +132,21 @@
     <t>Currently Hospitalized</t>
   </si>
   <si>
-    <t>Acquisition (group)</t>
-  </si>
-  <si>
-    <t>% of Total Case Counts</t>
+    <t>Most Likely Source (group)</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Household contact</t>
   </si>
   <si>
     <t>Institutional/Healthcare</t>
   </si>
   <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
     <t>Close contact with a case</t>
   </si>
   <si>
@@ -156,22 +159,19 @@
     <t>Ever Hospitalized</t>
   </si>
   <si>
-    <t>hosp icu or intub</t>
+    <t>Severity Indicator</t>
+  </si>
+  <si>
+    <t>Hospitalized Cases</t>
   </si>
   <si>
     <t>ICU Cases</t>
   </si>
   <si>
-    <t>Hospitalized Cases</t>
-  </si>
-  <si>
     <t>Intubated Cases</t>
   </si>
   <si>
     <t>Fatal Cases</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -536,35 +536,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>3.3883192149999998E-2</v>
+        <v>3.071083506E-2</v>
       </c>
       <c r="C2">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
-        <v>4.4583147570000002E-2</v>
+        <v>3.8992408559999997E-2</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>0.15403477486</v>
+        <v>0.15493443754</v>
       </c>
       <c r="C4">
-        <v>691</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -574,17 +574,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -592,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -600,13 +599,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -614,10 +613,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -625,362 +624,362 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
         <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <v>124</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>44</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
       <c r="C36">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,10 +987,21 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37">
-        <v>72</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1015,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4486</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1034,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>303</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1042,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>238</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1066,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1077,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1089,9 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1111,10 +1119,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>3.5666518099999999E-3</v>
+        <v>4.6583850899999998E-3</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1122,10 +1130,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>0.11613909942</v>
+        <v>0.10990338164000001</v>
       </c>
       <c r="C3">
-        <v>521</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1133,10 +1141,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>0.14757021846000001</v>
+        <v>0.13785369219999999</v>
       </c>
       <c r="C4">
-        <v>662</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1144,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>8.6937137760000005E-2</v>
+        <v>8.5748792269999999E-2</v>
       </c>
       <c r="C5">
-        <v>390</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1155,10 +1163,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>0.11948283548999999</v>
+        <v>0.11594202899</v>
       </c>
       <c r="C6">
-        <v>536</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,10 +1174,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>0.14534106108</v>
+        <v>0.14579020013999999</v>
       </c>
       <c r="C7">
-        <v>652</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,10 +1185,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>0.13241194828</v>
+        <v>0.13440303658</v>
       </c>
       <c r="C8">
-        <v>594</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1188,10 +1196,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>0.12906821222000001</v>
+        <v>0.13216011042</v>
       </c>
       <c r="C9">
-        <v>579</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,10 +1207,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>0.10120374498</v>
+        <v>0.10817805383</v>
       </c>
       <c r="C10">
-        <v>454</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1210,10 +1218,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>1.8279090500000001E-2</v>
+        <v>2.5362318839999998E-2</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1223,16 +1231,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1245,527 +1252,527 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>43945</v>
+        <v>43952</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43943</v>
+        <v>43950</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43942</v>
+        <v>43949</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43941</v>
+        <v>43948</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43940</v>
+        <v>43947</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43939</v>
+        <v>43946</v>
       </c>
       <c r="B8">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43938</v>
+        <v>43945</v>
       </c>
       <c r="B9">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B10">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43936</v>
+        <v>43943</v>
       </c>
       <c r="B11">
-        <v>247</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43935</v>
+        <v>43942</v>
       </c>
       <c r="B12">
-        <v>238</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>43934</v>
+        <v>43941</v>
       </c>
       <c r="B13">
-        <v>310</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43933</v>
+        <v>43940</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43932</v>
+        <v>43939</v>
       </c>
       <c r="B15">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="B16">
-        <v>161</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B17">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B18">
-        <v>147</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>43928</v>
+        <v>43935</v>
       </c>
       <c r="B19">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>43927</v>
+        <v>43934</v>
       </c>
       <c r="B20">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>43926</v>
+        <v>43933</v>
       </c>
       <c r="B21">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>43925</v>
+        <v>43932</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>43924</v>
+        <v>43931</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B24">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>43922</v>
+        <v>43929</v>
       </c>
       <c r="B25">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>43921</v>
+        <v>43928</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>43920</v>
+        <v>43927</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="B28">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>43918</v>
+        <v>43925</v>
       </c>
       <c r="B29">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>43917</v>
+        <v>43924</v>
       </c>
       <c r="B30">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>43915</v>
+        <v>43922</v>
       </c>
       <c r="B32">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>43914</v>
+        <v>43921</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>43913</v>
+        <v>43920</v>
       </c>
       <c r="B34">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>43912</v>
+        <v>43919</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>43911</v>
+        <v>43918</v>
       </c>
       <c r="B36">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="B37">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="B39">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="B41">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>43905</v>
+        <v>43912</v>
       </c>
       <c r="B42">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>43904</v>
+        <v>43911</v>
       </c>
       <c r="B43">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>43901</v>
+        <v>43908</v>
       </c>
       <c r="B46">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>43900</v>
+        <v>43907</v>
       </c>
       <c r="B47">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>43898</v>
+        <v>43905</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>43897</v>
+        <v>43904</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>43894</v>
+        <v>43901</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>43893</v>
+        <v>43900</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>43892</v>
+        <v>43899</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>43891</v>
+        <v>43898</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>43890</v>
+        <v>43897</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>43889</v>
+        <v>43896</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>43887</v>
+        <v>43895</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>43885</v>
+        <v>43894</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>43882</v>
+        <v>43893</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>43881</v>
+        <v>43892</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>43877</v>
+        <v>43891</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>43876</v>
+        <v>43890</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>43875</v>
+        <v>43889</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>43866</v>
+        <v>43887</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>43852</v>
+        <v>43885</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1773,9 +1780,73 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>43851</v>
       </c>
-      <c r="B68">
+      <c r="B76">
         <v>1</v>
       </c>
     </row>
@@ -1788,9 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1807,10 +1876,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>4.4583147999999997E-4</v>
+        <v>3.4506556000000002E-4</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1821,32 +1890,32 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>2.4074899689999998E-2</v>
+        <v>2.3291925469999999E-2</v>
       </c>
       <c r="C3">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>0.43067320552999999</v>
+        <v>0.42926155970000002</v>
       </c>
       <c r="C4">
-        <v>1932</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>0.54480606331000003</v>
+        <v>0.54710144928000004</v>
       </c>
       <c r="C5">
-        <v>2444</v>
+        <v>3171</v>
       </c>
     </row>
   </sheetData>
@@ -1856,16 +1925,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1873,542 +1941,606 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>43945</v>
+        <v>43952</v>
       </c>
       <c r="B2">
-        <v>4486</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B3">
-        <v>4484</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43943</v>
+        <v>43950</v>
       </c>
       <c r="B4">
-        <v>4455</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43942</v>
+        <v>43949</v>
       </c>
       <c r="B5">
-        <v>4424</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43941</v>
+        <v>43948</v>
       </c>
       <c r="B6">
-        <v>4381</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43940</v>
+        <v>43947</v>
       </c>
       <c r="B7">
-        <v>4298</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43939</v>
+        <v>43946</v>
       </c>
       <c r="B8">
-        <v>4230</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43938</v>
+        <v>43945</v>
       </c>
       <c r="B9">
-        <v>4093</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B10">
-        <v>3958</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43936</v>
+        <v>43943</v>
       </c>
       <c r="B11">
-        <v>3807</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43935</v>
+        <v>43942</v>
       </c>
       <c r="B12">
-        <v>3560</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>43934</v>
+        <v>43941</v>
       </c>
       <c r="B13">
-        <v>3322</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43933</v>
+        <v>43940</v>
       </c>
       <c r="B14">
-        <v>3012</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43932</v>
+        <v>43939</v>
       </c>
       <c r="B15">
-        <v>2882</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="B16">
-        <v>2707</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B17">
-        <v>2546</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B18">
-        <v>2392</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>43928</v>
+        <v>43935</v>
       </c>
       <c r="B19">
-        <v>2245</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>43927</v>
+        <v>43934</v>
       </c>
       <c r="B20">
-        <v>2070</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>43926</v>
+        <v>43933</v>
       </c>
       <c r="B21">
-        <v>1904</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>43925</v>
+        <v>43932</v>
       </c>
       <c r="B22">
-        <v>1799</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>43924</v>
+        <v>43931</v>
       </c>
       <c r="B23">
-        <v>1707</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B24">
-        <v>1595</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>43922</v>
+        <v>43929</v>
       </c>
       <c r="B25">
-        <v>1467</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>43921</v>
+        <v>43928</v>
       </c>
       <c r="B26">
-        <v>1339</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>43920</v>
+        <v>43927</v>
       </c>
       <c r="B27">
-        <v>1252</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="B28">
-        <v>1176</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>43918</v>
+        <v>43925</v>
       </c>
       <c r="B29">
-        <v>1110</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>43917</v>
+        <v>43924</v>
       </c>
       <c r="B30">
-        <v>1054</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B31">
-        <v>981</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>43915</v>
+        <v>43922</v>
       </c>
       <c r="B32">
-        <v>895</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>43914</v>
+        <v>43921</v>
       </c>
       <c r="B33">
-        <v>830</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>43913</v>
+        <v>43920</v>
       </c>
       <c r="B34">
-        <v>763</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>43912</v>
+        <v>43919</v>
       </c>
       <c r="B35">
-        <v>697</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>43911</v>
+        <v>43918</v>
       </c>
       <c r="B36">
-        <v>661</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="B37">
-        <v>597</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B38">
-        <v>534</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>43908</v>
+        <v>43915</v>
       </c>
       <c r="B39">
-        <v>484</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="B40">
-        <v>416</v>
+        <v>861</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="B41">
-        <v>332</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>43905</v>
+        <v>43912</v>
       </c>
       <c r="B42">
-        <v>282</v>
+        <v>726</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>43904</v>
+        <v>43911</v>
       </c>
       <c r="B43">
-        <v>248</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="B44">
-        <v>202</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B45">
-        <v>161</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>43901</v>
+        <v>43908</v>
       </c>
       <c r="B46">
-        <v>132</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>43900</v>
+        <v>43907</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="B48">
-        <v>89</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>43898</v>
+        <v>43905</v>
       </c>
       <c r="B49">
-        <v>73</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>43897</v>
+        <v>43904</v>
       </c>
       <c r="B50">
-        <v>66</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="B51">
-        <v>56</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>43894</v>
+        <v>43901</v>
       </c>
       <c r="B53">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>43893</v>
+        <v>43900</v>
       </c>
       <c r="B54">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>43892</v>
+        <v>43899</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>43891</v>
+        <v>43898</v>
       </c>
       <c r="B56">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>43890</v>
+        <v>43897</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>43889</v>
+        <v>43896</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>43887</v>
+        <v>43895</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>43885</v>
+        <v>43894</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>43882</v>
+        <v>43893</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>43881</v>
+        <v>43892</v>
       </c>
       <c r="B62">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>43877</v>
+        <v>43891</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>43876</v>
+        <v>43890</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>43875</v>
+        <v>43889</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>43866</v>
+        <v>43887</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>43852</v>
+        <v>43885</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>43851</v>
       </c>
-      <c r="B68">
+      <c r="B76">
         <v>1</v>
       </c>
     </row>
@@ -2422,17 +2554,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2443,35 +2572,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>1.872492198E-2</v>
+        <v>1.518288475E-2</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>2.5189478380000001E-2</v>
+        <v>1.93236715E-2</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
-        <v>6.687472136E-2</v>
+        <v>6.0386473429999997E-2</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2610,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2489,42 +2618,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0408163270000002E-2</v>
+        <v>0.12376525276</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
-        <v>7.8492935639999997E-2</v>
+        <v>0.15339918652000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
-        <v>0.26687598116</v>
+        <v>0.15456130157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28100470958000001</v>
+        <v>0.15514235908999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2532,7 +2661,15 @@
         <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>0.35321821036000001</v>
+        <v>0.1836141778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.23126089483000001</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/covid19_Toronto.xlsx
+++ b/inst/extdata/covid19_Toronto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="74580" yWindow="5655" windowWidth="19995" windowHeight="19500" tabRatio="827"/>
+    <workbookView xWindow="74580" yWindow="5655" windowWidth="19995" windowHeight="19500" tabRatio="827" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="Cases by Gender" sheetId="15" r:id="rId6"/>
     <sheet name="Cumulative Cases by Episode Dat" sheetId="16" r:id="rId7"/>
     <sheet name="Currently Hospitalized" sheetId="17" r:id="rId8"/>
-    <sheet name="Exposures" sheetId="18" r:id="rId9"/>
+    <sheet name="Exposures" sheetId="21" r:id="rId9"/>
     <sheet name="Percent Ever Hospitalized" sheetId="19" r:id="rId10"/>
     <sheet name="Proportion of All Cases" sheetId="20" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="50">
   <si>
     <t>Case Count</t>
   </si>
@@ -63,7 +63,7 @@
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
   <si>
-    <t>Updated: May 1, 2020</t>
+    <t>Data as of May 5, 2020</t>
   </si>
   <si>
     <t>Age Group</t>
@@ -105,6 +105,15 @@
     <t>Episode Date</t>
   </si>
   <si>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>Distinct count of Fatal Cases</t>
+  </si>
+  <si>
+    <t>Distinct count of Recovered Cases</t>
+  </si>
+  <si>
     <t>Client Gender</t>
   </si>
   <si>
@@ -117,7 +126,10 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Running Sum of Case Count</t>
+    <t>Measure Names</t>
+  </si>
+  <si>
+    <t>Recovered Cases</t>
   </si>
   <si>
     <t>Interventions</t>
@@ -126,28 +138,22 @@
     <t>Currently Intubated</t>
   </si>
   <si>
+    <t>% of Total Case Count along Table (Down)</t>
+  </si>
+  <si>
     <t>Currently in ICU</t>
   </si>
   <si>
     <t>Currently Hospitalized</t>
   </si>
   <si>
-    <t>Most Likely Source (group)</t>
+    <t>Most Likely Source (group) 1</t>
   </si>
   <si>
     <t>Travel</t>
   </si>
   <si>
     <t>Community</t>
-  </si>
-  <si>
-    <t>Household contact</t>
-  </si>
-  <si>
-    <t>Institutional/Healthcare</t>
-  </si>
-  <si>
-    <t>Close contact with a case</t>
   </si>
   <si>
     <t>Ever Intubated</t>
@@ -172,6 +178,12 @@
   </si>
   <si>
     <t>Fatal Cases</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Close contact with a case</t>
   </si>
 </sst>
 </file>
@@ -493,8 +505,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B14:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -525,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -536,35 +548,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
-        <v>3.071083506E-2</v>
+        <v>2.7606901730000001E-2</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>3.8992408559999997E-2</v>
+        <v>3.5858964739999999E-2</v>
       </c>
       <c r="C3">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
-        <v>0.15493443754</v>
+        <v>0.15093773443</v>
       </c>
       <c r="C4">
-        <v>898</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -577,12 +589,11 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -591,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -602,10 +613,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -624,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -635,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -646,10 +657,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,10 +668,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,10 +679,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -679,10 +690,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,10 +701,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>138</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,10 +723,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -723,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -734,10 +745,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,10 +756,10 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,7 +767,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -767,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -778,7 +789,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -789,7 +800,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -800,10 +811,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -811,10 +822,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -822,10 +833,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -833,10 +844,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,10 +855,10 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -855,10 +866,10 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -866,10 +877,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,10 +888,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -888,10 +899,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -899,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -910,10 +921,10 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -921,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -932,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>180</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -943,10 +954,10 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,10 +965,10 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,10 +976,10 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -976,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -987,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -998,10 +1009,10 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1015,7 +1026,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5796</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3558</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>394</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1119,10 +1130,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>4.6583850899999998E-3</v>
+        <v>5.2513128300000003E-3</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,10 +1141,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>0.10990338164000001</v>
+        <v>0.10172543135999999</v>
       </c>
       <c r="C3">
-        <v>637</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1141,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>0.13785369219999999</v>
+        <v>0.13248312077999999</v>
       </c>
       <c r="C4">
-        <v>799</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1152,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>8.5748792269999999E-2</v>
+        <v>8.3270817699999999E-2</v>
       </c>
       <c r="C5">
-        <v>497</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1163,10 +1174,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>0.11594202899</v>
+        <v>0.1168792198</v>
       </c>
       <c r="C6">
-        <v>672</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1174,10 +1185,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>0.14579020013999999</v>
+        <v>0.1488372093</v>
       </c>
       <c r="C7">
-        <v>845</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,10 +1196,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>0.13440303658</v>
+        <v>0.13728432107999999</v>
       </c>
       <c r="C8">
-        <v>779</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1196,10 +1207,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>0.13216011042</v>
+        <v>0.13323330832999999</v>
       </c>
       <c r="C9">
-        <v>766</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1207,10 +1218,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>0.10817805383</v>
+        <v>0.11447861965</v>
       </c>
       <c r="C10">
-        <v>627</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1218,10 +1229,10 @@
         <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>2.5362318839999998E-2</v>
+        <v>2.6556639159999999E-2</v>
       </c>
       <c r="C11">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1231,622 +1242,1371 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B4">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>43952</v>
       </c>
-      <c r="B2">
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B8">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>111</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B9">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>164</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B10">
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B12">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>117</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B13">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>132</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B14">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>143</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B15">
+        <v>168</v>
+      </c>
+      <c r="C15">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B16">
+        <v>143</v>
+      </c>
+      <c r="C16">
+        <v>131</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B17">
+        <v>192</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B18">
+        <v>112</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B19">
+        <v>237</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B20">
+        <v>218</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B21">
+        <v>162</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B22">
+        <v>254</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B23">
+        <v>249</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B3">
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B24">
+        <v>280</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B25">
+        <v>145</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B26">
+        <v>158</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B27">
+        <v>160</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B28">
+        <v>161</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B29">
+        <v>153</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B30">
+        <v>176</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B31">
+        <v>167</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B32">
+        <v>121</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B33">
+        <v>107</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B34">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B35">
+        <v>137</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B37">
+        <v>86</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38">
+        <v>90</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B39">
+        <v>84</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B40">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B41">
+        <v>82</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B42">
+        <v>99</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B43">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B44">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B45">
+        <v>66</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B47">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B48">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B49">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B50">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B51">
+        <v>84</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B55">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43949</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43948</v>
-      </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43947</v>
-      </c>
-      <c r="B7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43946</v>
-      </c>
-      <c r="B8">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43945</v>
-      </c>
-      <c r="B9">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43944</v>
-      </c>
-      <c r="B10">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43943</v>
-      </c>
-      <c r="B11">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43942</v>
-      </c>
-      <c r="B12">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43941</v>
-      </c>
-      <c r="B13">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>43940</v>
-      </c>
-      <c r="B14">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>43939</v>
-      </c>
-      <c r="B15">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>43938</v>
-      </c>
-      <c r="B16">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>43937</v>
-      </c>
-      <c r="B17">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>43936</v>
-      </c>
-      <c r="B18">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B19">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B20">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>43933</v>
-      </c>
-      <c r="B21">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B22">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B23">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B24">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B25">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B26">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B27">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>43926</v>
-      </c>
-      <c r="B28">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>43925</v>
-      </c>
-      <c r="B29">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B30">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B31">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B32">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B33">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B34">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B35">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>43918</v>
-      </c>
-      <c r="B36">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>43917</v>
-      </c>
-      <c r="B37">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>43916</v>
-      </c>
-      <c r="B38">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>43915</v>
-      </c>
-      <c r="B39">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>43914</v>
-      </c>
-      <c r="B40">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>43913</v>
-      </c>
-      <c r="B41">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>43912</v>
-      </c>
-      <c r="B42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>43911</v>
-      </c>
-      <c r="B43">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>43910</v>
-      </c>
-      <c r="B44">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>43909</v>
-      </c>
-      <c r="B45">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>43908</v>
-      </c>
-      <c r="B46">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>43907</v>
-      </c>
-      <c r="B47">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>43906</v>
-      </c>
-      <c r="B48">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>43905</v>
-      </c>
-      <c r="B49">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>43904</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>43903</v>
-      </c>
-      <c r="B51">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>43902</v>
       </c>
-      <c r="B52">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="B56">
+        <v>31</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>43901</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>43900</v>
       </c>
-      <c r="B54">
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B59">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>43899</v>
-      </c>
-      <c r="B55">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>43898</v>
       </c>
-      <c r="B56">
+      <c r="B60">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>43897</v>
       </c>
-      <c r="B57">
+      <c r="B61">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>43896</v>
       </c>
-      <c r="B58">
+      <c r="B62">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>43895</v>
       </c>
-      <c r="B59">
+      <c r="B63">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>43894</v>
       </c>
-      <c r="B60">
+      <c r="B64">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>43893</v>
       </c>
-      <c r="B61">
+      <c r="B65">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>43892</v>
       </c>
-      <c r="B62">
+      <c r="B66">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>43891</v>
       </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>43890</v>
       </c>
-      <c r="B64">
+      <c r="B68">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>43889</v>
       </c>
-      <c r="B65">
+      <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>43887</v>
       </c>
-      <c r="B66">
+      <c r="B70">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>43885</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>43877</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>43876</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>43875</v>
+        <v>43882</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B73">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>43866</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>43862</v>
+        <v>43877</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>43852</v>
+        <v>43876</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>43851</v>
       </c>
-      <c r="B76">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>1</v>
       </c>
     </row>
@@ -1865,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -1876,13 +2636,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
-        <v>3.4506556000000002E-4</v>
+        <v>6.0015003999999998E-4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1890,32 +2650,32 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>2.3291925469999999E-2</v>
+        <v>2.175543886E-2</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>0.42926155970000002</v>
+        <v>0.43255813953</v>
       </c>
       <c r="C4">
-        <v>2488</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
-        <v>0.54710144928000004</v>
+        <v>0.54508627157</v>
       </c>
       <c r="C5">
-        <v>3171</v>
+        <v>3633</v>
       </c>
     </row>
   </sheetData>
@@ -1925,622 +2685,2633 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:C238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>43952</v>
       </c>
-      <c r="B2">
-        <v>5796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>43951</v>
       </c>
-      <c r="B3">
-        <v>5786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>43950</v>
       </c>
-      <c r="B4">
-        <v>5742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>43949</v>
       </c>
-      <c r="B5">
-        <v>5675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>43948</v>
       </c>
-      <c r="B6">
-        <v>5585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>43947</v>
       </c>
-      <c r="B7">
-        <v>5498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>43946</v>
       </c>
-      <c r="B8">
-        <v>5439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>43945</v>
       </c>
-      <c r="B9">
-        <v>5342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>43944</v>
       </c>
-      <c r="B10">
-        <v>5233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>43943</v>
       </c>
-      <c r="B11">
-        <v>5095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>43942</v>
       </c>
-      <c r="B12">
-        <v>4937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>43941</v>
       </c>
-      <c r="B13">
-        <v>4807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>43940</v>
       </c>
-      <c r="B14">
-        <v>4615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>43939</v>
       </c>
-      <c r="B15">
-        <v>4509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>43938</v>
       </c>
-      <c r="B16">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>43937</v>
       </c>
-      <c r="B17">
-        <v>4073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>43936</v>
       </c>
-      <c r="B18">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>43935</v>
       </c>
-      <c r="B19">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>43934</v>
       </c>
-      <c r="B20">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>43933</v>
       </c>
-      <c r="B21">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>43932</v>
       </c>
-      <c r="B22">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>43931</v>
       </c>
-      <c r="B23">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>43930</v>
       </c>
-      <c r="B24">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>43929</v>
       </c>
-      <c r="B25">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>43928</v>
       </c>
-      <c r="B26">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>43927</v>
       </c>
-      <c r="B27">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>43926</v>
       </c>
-      <c r="B28">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>43925</v>
       </c>
-      <c r="B29">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
         <v>1888</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B108" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
         <v>43924</v>
       </c>
-      <c r="B30">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
         <v>43923</v>
       </c>
-      <c r="B31">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
         <v>43922</v>
       </c>
-      <c r="B32">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
         <v>43921</v>
       </c>
-      <c r="B33">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
         <v>43920</v>
       </c>
-      <c r="B34">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
         <v>43919</v>
       </c>
-      <c r="B35">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
         <v>43918</v>
       </c>
-      <c r="B36">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
         <v>43917</v>
       </c>
-      <c r="B37">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
         <v>43916</v>
       </c>
-      <c r="B38">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
         <v>43915</v>
       </c>
-      <c r="B39">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
         <v>43914</v>
       </c>
-      <c r="B40">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
         <v>43913</v>
       </c>
-      <c r="B41">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
         <v>43912</v>
       </c>
-      <c r="B42">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
         <v>43911</v>
       </c>
-      <c r="B43">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
         <v>43910</v>
       </c>
-      <c r="B44">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="B127" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
         <v>43909</v>
       </c>
-      <c r="B45">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="B128" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
         <v>43908</v>
       </c>
-      <c r="B46">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
         <v>43907</v>
       </c>
-      <c r="B47">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="B130" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
         <v>43906</v>
       </c>
-      <c r="B48">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
         <v>43905</v>
       </c>
-      <c r="B49">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="B132" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
         <v>43904</v>
       </c>
-      <c r="B50">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
         <v>43903</v>
       </c>
-      <c r="B51">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
         <v>43902</v>
       </c>
-      <c r="B52">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
         <v>43901</v>
       </c>
-      <c r="B53">
+      <c r="B136" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>43900</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B138" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>43890</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B150" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>43877</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B156" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B160" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B161" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B163" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B164" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B167" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B168" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B169" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B170" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B171" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B172" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B173" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B174" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B179" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B180" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B182" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B183" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B185" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B186" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B189" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B190" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B193" t="s">
+        <v>31</v>
+      </c>
+      <c r="C193">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B194" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B195" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B196" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>43919</v>
+      </c>
+      <c r="B197" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>43918</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>43917</v>
+      </c>
+      <c r="B199" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>43916</v>
+      </c>
+      <c r="B200" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>43915</v>
+      </c>
+      <c r="B201" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>43914</v>
+      </c>
+      <c r="B202" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>43913</v>
+      </c>
+      <c r="B203" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>43912</v>
+      </c>
+      <c r="B204" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>43911</v>
+      </c>
+      <c r="B205" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>43910</v>
+      </c>
+      <c r="B206" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>43909</v>
+      </c>
+      <c r="B207" t="s">
+        <v>31</v>
+      </c>
+      <c r="C207">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B208" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B209" t="s">
+        <v>31</v>
+      </c>
+      <c r="C209">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B210" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B211" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>43904</v>
+      </c>
+      <c r="B212" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B213" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B214" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>43901</v>
+      </c>
+      <c r="B215" t="s">
+        <v>31</v>
+      </c>
+      <c r="C215">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
         <v>43900</v>
       </c>
-      <c r="B54">
+      <c r="B216" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
         <v>43899</v>
       </c>
-      <c r="B55">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="B217" t="s">
+        <v>31</v>
+      </c>
+      <c r="C217">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
         <v>43898</v>
       </c>
-      <c r="B56">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="B218" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
         <v>43897</v>
       </c>
-      <c r="B57">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="B219" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
         <v>43896</v>
       </c>
-      <c r="B58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="B220" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
         <v>43895</v>
       </c>
-      <c r="B59">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="B221" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
         <v>43894</v>
       </c>
-      <c r="B60">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="B222" t="s">
+        <v>31</v>
+      </c>
+      <c r="C222">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
         <v>43893</v>
       </c>
-      <c r="B61">
+      <c r="B223" t="s">
+        <v>31</v>
+      </c>
+      <c r="C223">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
         <v>43892</v>
       </c>
-      <c r="B62">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="B224" t="s">
+        <v>31</v>
+      </c>
+      <c r="C224">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
         <v>43891</v>
       </c>
-      <c r="B63">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="B225" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
         <v>43890</v>
       </c>
-      <c r="B64">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="B226" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
         <v>43889</v>
       </c>
-      <c r="B65">
+      <c r="B227" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B228" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>43887</v>
-      </c>
-      <c r="B66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
         <v>43885</v>
       </c>
-      <c r="B67">
+      <c r="B229" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B230" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>43882</v>
-      </c>
-      <c r="B68">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B231" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
         <v>43877</v>
       </c>
-      <c r="B70">
+      <c r="B232" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>43876</v>
+      </c>
+      <c r="B233" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>43876</v>
-      </c>
-      <c r="B71">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B234" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
         <v>43866</v>
       </c>
-      <c r="B73">
+      <c r="B235" t="s">
+        <v>31</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>43862</v>
+      </c>
+      <c r="B236" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>43862</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
         <v>43852</v>
       </c>
-      <c r="B75">
+      <c r="B237" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
         <v>43851</v>
       </c>
-      <c r="B76">
+      <c r="B238" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238">
         <v>1</v>
       </c>
     </row>
@@ -2551,56 +5322,66 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.518288475E-2</v>
-      </c>
-      <c r="C2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.185296324E-2</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.93236715E-2</v>
-      </c>
-      <c r="C3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.485371343E-2</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6.0386473429999997E-2</v>
-      </c>
-      <c r="C4">
-        <v>350</v>
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.8664666169999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2610,15 +5391,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2626,53 +5409,45 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>0.12376525276</v>
+        <v>9.2966573819999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.15339918652000001</v>
+        <v>0.10236768802</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
-        <v>0.15456130157</v>
+        <v>0.17409470752</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>0.15514235908999999</v>
+        <v>0.17548746518</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
-        <v>0.1836141778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.23126089483000001</v>
+        <v>0.45508356546000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>